--- a/Code/Results/Cases/Case_2_128/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_128/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8599783540701083</v>
+        <v>0.3811094136979136</v>
       </c>
       <c r="C2">
-        <v>0.4911070535365241</v>
+        <v>0.1923305032046585</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.343952294899822</v>
+        <v>0.4029314417661851</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008168173616345162</v>
+        <v>0.002501565051071691</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.892799067430701</v>
+        <v>1.856491428754794</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.343624170866434</v>
+        <v>0.5716404330439957</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7385498564408408</v>
+        <v>0.3536534848279587</v>
       </c>
       <c r="C3">
-        <v>0.4234300155483766</v>
+        <v>0.1742865515051051</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.148125689922296</v>
+        <v>0.3514740142551886</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008255363961406565</v>
+        <v>0.002506323312352612</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.607026582011372</v>
+        <v>1.77356445341519</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.15524919726937</v>
+        <v>0.5260595393841072</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6656315647143458</v>
+        <v>0.3371396458981337</v>
       </c>
       <c r="C4">
-        <v>0.38285032220071</v>
+        <v>0.163294212608605</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.031080122358915</v>
+        <v>0.3200003049035729</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008309916938012346</v>
+        <v>0.002509390414907902</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.435478979847701</v>
+        <v>1.722877816663868</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.04219467796446</v>
+        <v>0.4984940867990701</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6362697476099015</v>
+        <v>0.3304960255400715</v>
       </c>
       <c r="C5">
-        <v>0.3665226562024202</v>
+        <v>0.1588359590628556</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9840549687706925</v>
+        <v>0.3072025220461256</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.000833242830294062</v>
+        <v>0.002510677014384208</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.366418596366032</v>
+        <v>1.702277617992067</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9966850988453757</v>
+        <v>0.4873656761031384</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6314139422404423</v>
+        <v>0.3293980270882173</v>
       </c>
       <c r="C6">
-        <v>0.3638230908291575</v>
+        <v>0.1580969335401221</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9762835079133225</v>
+        <v>0.3050790789481113</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008336183918531175</v>
+        <v>0.002510892876051363</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.354998504546529</v>
+        <v>1.698860205058196</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9891595649164344</v>
+        <v>0.4855241022968073</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6652342256577981</v>
+        <v>0.3370497007462632</v>
       </c>
       <c r="C7">
-        <v>0.3826293208163349</v>
+        <v>0.1632340019241383</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.030443366644477</v>
+        <v>0.3198275993852064</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.000831021936714157</v>
+        <v>0.002509407617410132</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.4345443528929</v>
+        <v>1.722599776437292</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.041578766468746</v>
+        <v>0.498343582702887</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.817731896488425</v>
+        <v>0.3715707609107142</v>
       </c>
       <c r="C8">
-        <v>0.4675468300632701</v>
+        <v>0.1860905856852355</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.275684832547952</v>
+        <v>0.3851622005618793</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008198041260762678</v>
+        <v>0.002503175583972749</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.793363851594407</v>
+        <v>1.82784844107303</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.278070744857587</v>
+        <v>0.5558359170362053</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.132838515722938</v>
+        <v>0.4420318647516126</v>
       </c>
       <c r="C9">
-        <v>0.6436619983540197</v>
+        <v>0.2316295693869961</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.788785644960726</v>
+        <v>0.5143659878155944</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007984871554333307</v>
+        <v>0.00249210268794428</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.535155018642158</v>
+        <v>2.03621874455861</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.767417657958589</v>
+        <v>0.6719845832574549</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.379094953661991</v>
+        <v>0.495539919037185</v>
       </c>
       <c r="C10">
-        <v>0.7819316988049536</v>
+        <v>0.2655683545081331</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.196733952762926</v>
+        <v>0.6101280498869528</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007830362927599367</v>
+        <v>0.002484658252580767</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.114745330341947</v>
+        <v>2.190730168883363</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.150488433639339</v>
+        <v>0.7594930758648104</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.495677573165921</v>
+        <v>0.5202724950116533</v>
       </c>
       <c r="C11">
-        <v>0.8475917116389837</v>
+        <v>0.2811223345443352</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.392237464022102</v>
+        <v>0.6539133705943954</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007759974790684188</v>
+        <v>0.002481419638734749</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.388979634933122</v>
+        <v>2.261377649292513</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.3320416307958</v>
+        <v>0.7997971496401703</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.540617304232768</v>
+        <v>0.5296952960759711</v>
       </c>
       <c r="C12">
-        <v>0.8729370743406548</v>
+        <v>0.2870295103787157</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.468030519211837</v>
+        <v>0.6705288200136579</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007733249711820892</v>
+        <v>0.002480214377281954</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.494652607209076</v>
+        <v>2.288185279109854</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.402060657563482</v>
+        <v>0.8151322284107039</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.530901037734992</v>
+        <v>0.5276633739867975</v>
       </c>
       <c r="C13">
-        <v>0.8674555750918103</v>
+        <v>0.2857565175613388</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.451622800669796</v>
+        <v>0.6669487871793933</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007739009580154388</v>
+        <v>0.002480473014270105</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.471807369165077</v>
+        <v>2.282409279533255</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.386920435031016</v>
+        <v>0.8118262831338541</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.499358037853256</v>
+        <v>0.5210465651741458</v>
       </c>
       <c r="C14">
-        <v>0.8496667034524421</v>
+        <v>0.2816079724015026</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.398435576180304</v>
+        <v>0.6552796175186018</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007757777876178465</v>
+        <v>0.002481320058354454</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.397634869183463</v>
+        <v>2.263582008770982</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.337775304594459</v>
+        <v>0.8010573081951122</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.480144719464278</v>
+        <v>0.5170010409094061</v>
       </c>
       <c r="C15">
-        <v>0.8388359622464918</v>
+        <v>0.2790691316775167</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.366097130178929</v>
+        <v>0.6481365453332728</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007769262964590655</v>
+        <v>0.002481841645262937</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.352449896362344</v>
+        <v>2.252057017066448</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.307844944537777</v>
+        <v>0.7944705252550364</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.371578898106179</v>
+        <v>0.4939315339903203</v>
       </c>
       <c r="C16">
-        <v>0.7777030793137953</v>
+        <v>0.2645542380988104</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.184184015356678</v>
+        <v>0.607271301868991</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007834956351586481</v>
+        <v>0.002484872867875275</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.097061240533833</v>
+        <v>2.186120702290339</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.138788177753497</v>
+        <v>0.7568692162090542</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.306234993802832</v>
+        <v>0.4798799817282031</v>
       </c>
       <c r="C17">
-        <v>0.7409624489750968</v>
+        <v>0.2556797671778384</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.075344982029705</v>
+        <v>0.5822608629553088</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0007875194307875121</v>
+        <v>0.002486770208109688</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.943298941586903</v>
+        <v>2.145765295432625</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.037089742958074</v>
+        <v>0.7339301110158658</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.26907058479074</v>
+        <v>0.4718346995150284</v>
       </c>
       <c r="C18">
-        <v>0.7200841786373644</v>
+        <v>0.2505861947437324</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.013654514057379</v>
+        <v>0.567896304251633</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007898332454207911</v>
+        <v>0.002487875436760244</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.855833339487845</v>
+        <v>2.122587569573199</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.97926663346388</v>
+        <v>0.7207827420138528</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.256555650108055</v>
+        <v>0.4691170010247561</v>
       </c>
       <c r="C19">
-        <v>0.7130564448414702</v>
+        <v>0.2488634311647502</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.992914537985328</v>
+        <v>0.5630361943961617</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0007906167206478111</v>
+        <v>0.002488252044643646</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.826377854283066</v>
+        <v>2.114745667690798</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.9597979066248</v>
+        <v>0.7163392276464151</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.313146614625992</v>
+        <v>0.4813719790739412</v>
       </c>
       <c r="C20">
-        <v>0.744846703921894</v>
+        <v>0.2566233483264568</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.086834611728889</v>
+        <v>0.5849210951020893</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.0007870911870519722</v>
+        <v>0.002486566792353711</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.959564303451032</v>
+        <v>2.15005769247756</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.047844784012511</v>
+        <v>0.7363671846928526</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.508600260890717</v>
+        <v>0.5229885257128046</v>
       </c>
       <c r="C21">
-        <v>0.854877911800088</v>
+        <v>0.2828260278526784</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.414007188230329</v>
+        <v>0.6587061651737969</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007752267587290647</v>
+        <v>0.002481070688687407</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.41936886120348</v>
+        <v>2.269110516706775</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.35217403046164</v>
+        <v>0.8042184294636741</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.641042065388291</v>
+        <v>0.5505206291365425</v>
       </c>
       <c r="C22">
-        <v>0.9296465993077163</v>
+        <v>0.3000516940417128</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.638300676061732</v>
+        <v>0.7071337642704805</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007674281137135054</v>
+        <v>0.002477601773314077</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.730706235939635</v>
+        <v>2.347240318724914</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.558599526768489</v>
+        <v>0.8489881886193302</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.569873162550635</v>
+        <v>0.5357954560720088</v>
       </c>
       <c r="C23">
-        <v>0.8894475362078822</v>
+        <v>0.2908485912146261</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.517504324430305</v>
+        <v>0.6812673400948484</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.0007715966071992948</v>
+        <v>0.002479441979502559</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.56343323399912</v>
+        <v>2.305510431209768</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.447653649914656</v>
+        <v>0.8250543372894583</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.31002062660292</v>
+        <v>0.4806973439043531</v>
       </c>
       <c r="C24">
-        <v>0.743089877135219</v>
+        <v>0.2561967289297513</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.081637425298723</v>
+        <v>0.5837183598996347</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.000787284794109225</v>
+        <v>0.002486658711755444</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.952207845285017</v>
+        <v>2.148117027959927</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.042980437989002</v>
+        <v>0.7352652572466809</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.045406868937363</v>
+        <v>0.4226686731077791</v>
       </c>
       <c r="C25">
-        <v>0.5947058219484518</v>
+        <v>0.2192287656314136</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.64547465256743</v>
+        <v>0.4792790027021141</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.000804200374923904</v>
+        <v>0.002494976228167505</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.329320748914611</v>
+        <v>1.979615053197378</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.631547594759638</v>
+        <v>0.640188665000494</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_128/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_128/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3811094136979136</v>
+        <v>0.8599783540702504</v>
       </c>
       <c r="C2">
-        <v>0.1923305032046585</v>
+        <v>0.4911070535370357</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4029314417661851</v>
+        <v>1.343952294899765</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002501565051071691</v>
+        <v>0.0008168173617009158</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.856491428754794</v>
+        <v>2.892799067430758</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5716404330439957</v>
+        <v>1.343624170866548</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3536534848279587</v>
+        <v>0.7385498564408692</v>
       </c>
       <c r="C3">
-        <v>0.1742865515051051</v>
+        <v>0.4234300155482629</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3514740142551886</v>
+        <v>1.148125689922324</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002506323312352612</v>
+        <v>0.000825536396012902</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.77356445341519</v>
+        <v>2.607026582011414</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5260595393841072</v>
+        <v>1.15524919726937</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3371396458981337</v>
+        <v>0.6656315647142037</v>
       </c>
       <c r="C4">
-        <v>0.163294212608605</v>
+        <v>0.38285032220071</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3200003049035729</v>
+        <v>1.031080122358873</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002509390414907902</v>
+        <v>0.0008309916938625673</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.722877816663868</v>
+        <v>2.435478979847687</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4984940867990701</v>
+        <v>1.042194677964403</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3304960255400715</v>
+        <v>0.636269747609731</v>
       </c>
       <c r="C5">
-        <v>0.1588359590628556</v>
+        <v>0.3665226562028181</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3072025220461256</v>
+        <v>0.984054968770721</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002510677014384208</v>
+        <v>0.0008332428302273431</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.702277617992067</v>
+        <v>2.366418596366088</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4873656761031384</v>
+        <v>0.9966850988454041</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3293980270882173</v>
+        <v>0.6314139422404992</v>
       </c>
       <c r="C6">
-        <v>0.1580969335401221</v>
+        <v>0.3638230908288733</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3050790789481113</v>
+        <v>0.9762835079133509</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002510892876051363</v>
+        <v>0.0008336183919128565</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.698860205058196</v>
+        <v>2.354998504546572</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4855241022968073</v>
+        <v>0.9891595649162639</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3370497007462632</v>
+        <v>0.6652342256577697</v>
       </c>
       <c r="C7">
-        <v>0.1632340019241383</v>
+        <v>0.3826293208163065</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3198275993852064</v>
+        <v>1.030443366644491</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002509407617410132</v>
+        <v>0.0008310219367765779</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.722599776437292</v>
+        <v>2.434544352892928</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.498343582702887</v>
+        <v>1.041578766468831</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3715707609107142</v>
+        <v>0.8177318964883398</v>
       </c>
       <c r="C8">
-        <v>0.1860905856852355</v>
+        <v>0.4675468300631849</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3851622005618793</v>
+        <v>1.275684832547995</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002503175583972749</v>
+        <v>0.0008198041261876246</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.82784844107303</v>
+        <v>2.793363851594492</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5558359170362053</v>
+        <v>1.278070744857615</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4420318647516126</v>
+        <v>1.132838515722852</v>
       </c>
       <c r="C9">
-        <v>0.2316295693869961</v>
+        <v>0.6436619983540197</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5143659878155944</v>
+        <v>1.788785644960697</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.00249210268794428</v>
+        <v>0.0007984871554268909</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.03621874455861</v>
+        <v>3.535155018642172</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6719845832574549</v>
+        <v>1.767417657958504</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.495539919037185</v>
+        <v>1.379094953661792</v>
       </c>
       <c r="C10">
-        <v>0.2655683545081331</v>
+        <v>0.7819316988041862</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6101280498869528</v>
+        <v>2.196733952762898</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.002484658252580767</v>
+        <v>0.0007830362929025299</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.190730168883363</v>
+        <v>4.114745330341947</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7594930758648104</v>
+        <v>2.150488433639453</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5202724950116533</v>
+        <v>1.495677573166034</v>
       </c>
       <c r="C11">
-        <v>0.2811223345443352</v>
+        <v>0.8475917116385574</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6539133705943954</v>
+        <v>2.39223746402206</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.002481419638734749</v>
+        <v>0.0007759974791028412</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.261377649292513</v>
+        <v>4.388979634933293</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7997971496401703</v>
+        <v>2.332041630795885</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5296952960759711</v>
+        <v>1.540617304233137</v>
       </c>
       <c r="C12">
-        <v>0.2870295103787157</v>
+        <v>0.8729370743415359</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6705288200136579</v>
+        <v>2.468030519211851</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002480214377281954</v>
+        <v>0.000773324971280644</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.288185279109854</v>
+        <v>4.494652607209161</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8151322284107039</v>
+        <v>2.402060657563197</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5276633739867975</v>
+        <v>1.530901037735134</v>
       </c>
       <c r="C13">
-        <v>0.2857565175613388</v>
+        <v>0.8674555750925776</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6669487871793933</v>
+        <v>2.451622800669853</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.002480473014270105</v>
+        <v>0.0007739009581657882</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.282409279533255</v>
+        <v>4.471807369165163</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8118262831338541</v>
+        <v>2.386920435031044</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5210465651741458</v>
+        <v>1.499358037853114</v>
       </c>
       <c r="C14">
-        <v>0.2816079724015026</v>
+        <v>0.8496667034522432</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6552796175186018</v>
+        <v>2.398435576180304</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002481320058354454</v>
+        <v>0.0007757777876120932</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.263582008770982</v>
+        <v>4.397634869183491</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8010573081951122</v>
+        <v>2.337775304594487</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5170010409094061</v>
+        <v>1.480144719464192</v>
       </c>
       <c r="C15">
-        <v>0.2790691316775167</v>
+        <v>0.8388359622456392</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6481365453332728</v>
+        <v>2.366097130178971</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002481841645262937</v>
+        <v>0.0007769262964391329</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.252057017066448</v>
+        <v>4.352449896362515</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7944705252550364</v>
+        <v>2.307844944537862</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4939315339903203</v>
+        <v>1.37157889810635</v>
       </c>
       <c r="C16">
-        <v>0.2645542380988104</v>
+        <v>0.7777030793135111</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.607271301868991</v>
+        <v>2.184184015356564</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002484872867875275</v>
+        <v>0.000783495635203814</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.186120702290339</v>
+        <v>4.097061240533833</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7568692162090542</v>
+        <v>2.138788177753526</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4798799817282031</v>
+        <v>1.30623499380269</v>
       </c>
       <c r="C17">
-        <v>0.2556797671778384</v>
+        <v>0.7409624489745852</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5822608629553088</v>
+        <v>2.075344982029705</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002486770208109688</v>
+        <v>0.000787519430769416</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.145765295432625</v>
+        <v>3.94329894158696</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7339301110158658</v>
+        <v>2.037089742957988</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4718346995150284</v>
+        <v>1.269070584790626</v>
       </c>
       <c r="C18">
-        <v>0.2505861947437324</v>
+        <v>0.7200841786369665</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.567896304251633</v>
+        <v>2.013654514057421</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002487875436760244</v>
+        <v>0.0007898332453202665</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.122587569573199</v>
+        <v>3.855833339487873</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7207827420138528</v>
+        <v>1.979266633463794</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4691170010247561</v>
+        <v>1.256555650107742</v>
       </c>
       <c r="C19">
-        <v>0.2488634311647502</v>
+        <v>0.7130564448410723</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5630361943961617</v>
+        <v>1.992914537985271</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.002488252044643646</v>
+        <v>0.0007906167208252465</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.114745667690798</v>
+        <v>3.826377854283066</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7163392276464151</v>
+        <v>1.959797906624772</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4813719790739412</v>
+        <v>1.313146614625879</v>
       </c>
       <c r="C20">
-        <v>0.2566233483264568</v>
+        <v>0.744846703922093</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5849210951020893</v>
+        <v>2.086834611728975</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002486566792353711</v>
+        <v>0.0007870911870370168</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.15005769247756</v>
+        <v>3.959564303451117</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7363671846928526</v>
+        <v>2.047844784012369</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5229885257128046</v>
+        <v>1.508600260890802</v>
       </c>
       <c r="C21">
-        <v>0.2828260278526784</v>
+        <v>0.8548779118002585</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6587061651737969</v>
+        <v>2.414007188230229</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002481070688687407</v>
+        <v>0.0007752267587804595</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.269110516706775</v>
+        <v>4.41936886120348</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8042184294636741</v>
+        <v>2.352174030461555</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5505206291365425</v>
+        <v>1.641042065388149</v>
       </c>
       <c r="C22">
-        <v>0.3000516940417128</v>
+        <v>0.9296465993079721</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7071337642704805</v>
+        <v>2.638300676061746</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.002477601773314077</v>
+        <v>0.0007674281138405334</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.347240318724914</v>
+        <v>4.730706235939635</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8489881886193302</v>
+        <v>2.558599526768489</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5357954560720088</v>
+        <v>1.569873162550664</v>
       </c>
       <c r="C23">
-        <v>0.2908485912146261</v>
+        <v>0.8894475362079959</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6812673400948484</v>
+        <v>2.517504324430305</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002479441979502559</v>
+        <v>0.0007715966073278213</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.305510431209768</v>
+        <v>4.563433233999007</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8250543372894583</v>
+        <v>2.44765364991477</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4806973439043531</v>
+        <v>1.310020626602778</v>
       </c>
       <c r="C24">
-        <v>0.2561967289297513</v>
+        <v>0.7430898771351337</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5837183598996347</v>
+        <v>2.081637425298808</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002486658711755444</v>
+        <v>0.0007872847941093814</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.148117027959927</v>
+        <v>3.952207845285017</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7352652572466809</v>
+        <v>2.04298043798903</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4226686731077791</v>
+        <v>1.045406868937249</v>
       </c>
       <c r="C25">
-        <v>0.2192287656314136</v>
+        <v>0.5947058219479402</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4792790027021141</v>
+        <v>1.645474652567444</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.002494976228167505</v>
+        <v>0.0008042003750201621</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.979615053197378</v>
+        <v>3.329320748914554</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.640188665000494</v>
+        <v>1.63154759475961</v>
       </c>
       <c r="L25">
         <v>0</v>
